--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,56 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,35 +724,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E8" s="3">
         <v>13600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>29800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,32 +765,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,32 +806,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,34 +946,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>5800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -967,34 +987,37 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>700</v>
       </c>
       <c r="F15" s="3">
         <v>700</v>
       </c>
       <c r="G15" s="3">
+        <v>700</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,35 +1044,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,35 +1083,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,34 +1143,35 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1700</v>
       </c>
       <c r="H20" s="3">
         <v>-1700</v>
       </c>
       <c r="I20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1148,29 +1182,32 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,35 +1264,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,34 +1305,37 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,35 +1387,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1376,35 +1428,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,34 +1633,37 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1700</v>
       </c>
       <c r="H32" s="3">
         <v>1700</v>
       </c>
       <c r="I32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1604,35 +1674,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,35 +1756,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,40 +1797,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1843,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,29 +1959,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E43" s="3">
         <v>15000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1918,12 +2014,12 @@
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,32 +2035,35 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E46" s="3">
         <v>36300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,13 +2123,16 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2036,14 +2141,14 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>14100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>35900</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,29 +2205,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E49" s="3">
         <v>31800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
         <v>2100</v>
       </c>
       <c r="F52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E54" s="3">
         <v>73100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>101600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E57" s="3">
         <v>24600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,20 +2538,20 @@
         <v>2300</v>
       </c>
       <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E60" s="3">
         <v>29100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,29 +2649,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E61" s="3">
         <v>19400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E66" s="3">
         <v>50600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E76" s="3">
         <v>22500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,40 +3322,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3176,35 +3368,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,29 +3428,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>-100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,29 +3672,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,23 +3732,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,29 +3853,32 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,29 +4075,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,16 +4116,19 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3896,8 +4145,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3908,29 +4157,32 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,60 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,38 +728,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>31400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,35 +772,38 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>25800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,35 +816,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>5600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,37 +966,40 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -990,37 +1010,40 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>700</v>
       </c>
       <c r="G15" s="3">
         <v>700</v>
       </c>
       <c r="H15" s="3">
+        <v>700</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,38 +1071,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>27600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1086,38 +1113,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,37 +1177,38 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1700</v>
       </c>
       <c r="I20" s="3">
         <v>-1700</v>
       </c>
       <c r="J20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1185,32 +1219,35 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-27300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,38 +1307,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,37 +1351,40 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,38 +1439,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1431,38 +1483,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,37 +1703,40 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1700</v>
       </c>
       <c r="I32" s="3">
         <v>1700</v>
       </c>
       <c r="J32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1677,38 +1747,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,38 +1835,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,43 +1879,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1846,8 +1928,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
-        <v>4900</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>13100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7900</v>
       </c>
-      <c r="I43" s="3">
-        <v>8400</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2017,12 +2113,12 @@
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,35 +2134,38 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>14300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>30200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21300</v>
       </c>
-      <c r="I46" s="3">
-        <v>13300</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,16 +2228,19 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2144,11 +2249,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>14100</v>
       </c>
-      <c r="I47" s="3">
-        <v>35900</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,29 +2272,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
-        <v>2700</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,29 +2316,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>30700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>32400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>33200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36400</v>
       </c>
-      <c r="I49" s="3">
-        <v>46400</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2100</v>
       </c>
       <c r="F52" s="3">
         <v>2100</v>
       </c>
       <c r="G52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
-        <v>3300</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
         <v>65800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>73100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>76300</v>
       </c>
-      <c r="I54" s="3">
-        <v>101600</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>16900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14100</v>
       </c>
-      <c r="I57" s="3">
-        <v>9100</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,29 +2660,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>2300</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>2300</v>
       </c>
       <c r="F58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
-        <v>300</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,29 +2704,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
-        <v>4000</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>22300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20600</v>
       </c>
-      <c r="I60" s="3">
-        <v>13400</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,29 +2792,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>19100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18400</v>
       </c>
-      <c r="I61" s="3">
-        <v>20400</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
-        <v>7700</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>41700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39300</v>
       </c>
-      <c r="I66" s="3">
-        <v>41400</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="I72" s="3">
-        <v>17400</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>24100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37000</v>
       </c>
-      <c r="I76" s="3">
-        <v>60200</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,43 +3514,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3371,38 +3563,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,32 +3627,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>700</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>-100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,32 +3889,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,26 +3953,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,32 +4083,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,32 +4321,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4119,19 +4365,22 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -4148,8 +4397,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4160,32 +4409,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -736,8 +736,8 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>17300</v>
       </c>
       <c r="E8" s="3">
         <v>31400</v>
@@ -780,8 +780,8 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>15100</v>
       </c>
       <c r="E9" s="3">
         <v>25800</v>
@@ -824,8 +824,8 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>2200</v>
       </c>
       <c r="E10" s="3">
         <v>5600</v>
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="E14" s="3">
         <v>800</v>
@@ -1018,8 +1018,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>900</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
@@ -1077,8 +1077,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>22400</v>
       </c>
       <c r="E17" s="3">
         <v>27600</v>
@@ -1121,8 +1121,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-5100</v>
       </c>
       <c r="E18" s="3">
         <v>3800</v>
@@ -1183,8 +1183,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
         <v>-1700</v>
@@ -1227,8 +1227,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-5700</v>
       </c>
       <c r="E21" s="3">
         <v>3000</v>
@@ -1315,8 +1315,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-6600</v>
       </c>
       <c r="E23" s="3">
         <v>2200</v>
@@ -1447,8 +1447,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-6200</v>
       </c>
       <c r="E26" s="3">
         <v>1100</v>
@@ -1491,8 +1491,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-6200</v>
       </c>
       <c r="E27" s="3">
         <v>1100</v>
@@ -1711,8 +1711,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
         <v>1700</v>
@@ -1755,8 +1755,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-6200</v>
       </c>
       <c r="E33" s="3">
         <v>1100</v>
@@ -1843,8 +1843,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-6200</v>
       </c>
       <c r="E35" s="3">
         <v>1100</v>
@@ -1972,8 +1972,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>2800</v>
       </c>
       <c r="E41" s="3">
         <v>2800</v>
@@ -1990,8 +1990,8 @@
       <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>4900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2060,8 +2060,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>12600</v>
       </c>
       <c r="E43" s="3">
         <v>13100</v>
@@ -2078,8 +2078,8 @@
       <c r="I43" s="3">
         <v>7900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>8400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2148,8 +2148,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>5100</v>
       </c>
       <c r="E45" s="3">
         <v>14300</v>
@@ -2192,8 +2192,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>20500</v>
       </c>
       <c r="E46" s="3">
         <v>30200</v>
@@ -2210,8 +2210,8 @@
       <c r="I46" s="3">
         <v>21300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>13300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2236,8 +2236,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>8200</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2254,8 @@
       <c r="I47" s="3">
         <v>14100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>35900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2280,8 +2280,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
         <v>2700</v>
@@ -2298,8 +2298,8 @@
       <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>2700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2324,8 +2324,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>29800</v>
       </c>
       <c r="E49" s="3">
         <v>30700</v>
@@ -2342,8 +2342,8 @@
       <c r="I49" s="3">
         <v>36400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>46400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2456,8 +2456,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>2200</v>
@@ -2474,8 +2474,8 @@
       <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>3300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2544,8 +2544,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>62400</v>
       </c>
       <c r="E54" s="3">
         <v>65800</v>
@@ -2562,8 +2562,8 @@
       <c r="I54" s="3">
         <v>76300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>101600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2624,8 +2624,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>15400</v>
       </c>
       <c r="E57" s="3">
         <v>16900</v>
@@ -2642,8 +2642,8 @@
       <c r="I57" s="3">
         <v>14100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>9100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2668,8 +2668,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
         <v>2300</v>
@@ -2686,8 +2686,8 @@
       <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2712,8 +2712,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>3000</v>
       </c>
       <c r="E59" s="3">
         <v>3100</v>
@@ -2730,8 +2730,8 @@
       <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>4000</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2756,8 +2756,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>19700</v>
       </c>
       <c r="E60" s="3">
         <v>22300</v>
@@ -2774,8 +2774,8 @@
       <c r="I60" s="3">
         <v>20600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>13400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2801,7 +2801,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="E61" s="3">
         <v>19100</v>
@@ -2819,7 +2819,7 @@
         <v>18400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2844,8 +2844,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2862,8 +2862,8 @@
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>7700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3020,8 +3020,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>44700</v>
       </c>
       <c r="E66" s="3">
         <v>41700</v>
@@ -3038,8 +3038,8 @@
       <c r="I66" s="3">
         <v>39300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>41400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3258,8 +3258,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-19400</v>
       </c>
       <c r="E72" s="3">
         <v>-14400</v>
@@ -3276,8 +3276,8 @@
       <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>17400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3434,8 +3434,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>17700</v>
       </c>
       <c r="E76" s="3">
         <v>24100</v>
@@ -3452,8 +3452,8 @@
       <c r="I76" s="3">
         <v>37000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>60200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3571,8 +3571,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-6200</v>
       </c>
       <c r="E81" s="3">
         <v>1100</v>
@@ -3633,8 +3633,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>900</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
@@ -3897,8 +3897,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
         <v>-3100</v>
@@ -3959,8 +3959,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -4091,8 +4091,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>800</v>
@@ -4329,8 +4329,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>2100</v>
       </c>
       <c r="E100" s="3">
         <v>-2000</v>
@@ -4373,8 +4373,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4417,8 +4417,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-4400</v>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,64 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,41 +732,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>17300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -775,38 +779,41 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>15100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,38 +826,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,40 +986,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1013,40 +1033,43 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>900</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
       </c>
       <c r="F15" s="3">
+        <v>900</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>700</v>
       </c>
       <c r="I15" s="3">
+        <v>700</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,41 +1098,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>22400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,41 +1143,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,40 +1211,41 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1700</v>
       </c>
       <c r="J20" s="3">
         <v>-1700</v>
       </c>
       <c r="K20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1222,35 +1256,38 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,41 +1350,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,40 +1397,43 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,41 +1491,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,41 +1538,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,40 +1773,43 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1700</v>
       </c>
       <c r="J32" s="3">
         <v>1700</v>
       </c>
       <c r="K32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1750,41 +1820,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,41 +1914,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,46 +1961,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1931,8 +2013,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>2800</v>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="3">
         <v>2800</v>
       </c>
       <c r="F41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>12600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2116,12 +2212,12 @@
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,38 +2233,41 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>20500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,19 +2333,22 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>8200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2252,14 +2357,14 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>14100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>35900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,35 +2380,38 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,35 +2427,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>29800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>33200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2100</v>
       </c>
       <c r="G52" s="3">
         <v>2100</v>
       </c>
       <c r="H52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
         <v>62400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>76300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>101600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>15400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,35 +2794,38 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>2300</v>
       </c>
       <c r="G58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,35 +2841,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>19700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,35 +2935,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>24600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>200</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
       <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>44700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>17700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>60200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,46 +3706,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3566,41 +3758,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,35 +3826,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>900</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
       </c>
       <c r="F83" s="3">
+        <v>900</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
         <v>-100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,35 +4106,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,29 +4174,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,35 +4313,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,35 +4567,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,13 +4614,16 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4382,8 +4631,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -4400,8 +4649,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4412,35 +4661,38 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,68 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,44 +736,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>17800</v>
       </c>
       <c r="E8" s="3">
-        <v>17300</v>
+        <v>22700</v>
       </c>
       <c r="F8" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G8" s="3">
         <v>31400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -782,41 +786,44 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>16100</v>
       </c>
       <c r="E9" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F9" s="3">
         <v>15100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>25800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,41 +836,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>1700</v>
       </c>
       <c r="E10" s="3">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="F10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="3">
         <v>5600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,43 +1006,46 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>5800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1036,13 +1056,16 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>1400</v>
       </c>
       <c r="E15" s="3">
         <v>900</v>
@@ -1051,28 +1074,28 @@
         <v>900</v>
       </c>
       <c r="G15" s="3">
+        <v>900</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>700</v>
       </c>
       <c r="I15" s="3">
         <v>700</v>
       </c>
       <c r="J15" s="3">
+        <v>700</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,44 +1125,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>24700</v>
       </c>
       <c r="E17" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F17" s="3">
         <v>22400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,44 +1173,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-6900</v>
       </c>
       <c r="E18" s="3">
-        <v>-5100</v>
+        <v>-2200</v>
       </c>
       <c r="F18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,43 +1245,44 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1700</v>
       </c>
       <c r="K20" s="3">
         <v>-1700</v>
       </c>
       <c r="L20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1259,38 +1293,41 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-6700</v>
       </c>
       <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-27300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,44 +1393,47 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-8100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1400,43 +1443,46 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,44 +1543,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-7600</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1541,44 +1593,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-7200</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,43 +1843,46 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>800</v>
+      </c>
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1700</v>
       </c>
       <c r="K32" s="3">
         <v>1700</v>
       </c>
       <c r="L32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1823,44 +1893,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-7200</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,44 +1993,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-7200</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1964,49 +2043,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2016,8 +2098,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2140,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>8600</v>
       </c>
       <c r="E41" s="3">
-        <v>2800</v>
+        <v>17400</v>
       </c>
       <c r="F41" s="3">
         <v>2800</v>
       </c>
       <c r="G41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,38 +2238,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>12700</v>
       </c>
       <c r="E43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F43" s="3">
         <v>12600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,16 +2288,19 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2215,12 +2311,12 @@
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,41 +2332,44 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2388,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>24000</v>
       </c>
       <c r="E46" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F46" s="3">
         <v>20500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>29800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,22 +2438,25 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F47" s="3">
         <v>8200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2360,14 +2465,14 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>14100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,38 +2488,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,38 +2538,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>47400</v>
       </c>
       <c r="E49" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F49" s="3">
         <v>29800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>30700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>36400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2688,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2100</v>
       </c>
       <c r="H52" s="3">
         <v>2100</v>
       </c>
       <c r="I52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2788,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>76500</v>
       </c>
       <c r="E54" s="3">
+        <v>83600</v>
+      </c>
+      <c r="F54" s="3">
         <v>62400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>69600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>76300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>101600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +2880,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>8900</v>
       </c>
       <c r="E57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F57" s="3">
         <v>15400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,38 +2928,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
       </c>
       <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,38 +2978,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>3500</v>
       </c>
       <c r="E59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,38 +3028,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>13400</v>
       </c>
       <c r="E60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F60" s="3">
         <v>19700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,38 +3078,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>22100</v>
       </c>
       <c r="E61" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F61" s="3">
         <v>24600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,13 +3128,16 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -3000,23 +3146,23 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3328,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>36100</v>
       </c>
       <c r="E66" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F66" s="3">
         <v>44700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3598,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-36300</v>
       </c>
       <c r="E72" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3798,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>40400</v>
       </c>
       <c r="E76" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F76" s="3">
         <v>17700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,49 +3898,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3761,44 +3953,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-7200</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4025,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1400</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
@@ -3842,23 +4041,23 @@
         <v>900</v>
       </c>
       <c r="G83" s="3">
+        <v>900</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>-100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,38 +4323,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-8600</v>
       </c>
       <c r="E89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,32 +4395,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,38 +4543,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,38 +4813,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4617,16 +4863,19 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4634,8 +4883,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -4652,8 +4901,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4664,38 +4913,41 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-8800</v>
       </c>
       <c r="E102" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,72 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,47 +740,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>17800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,44 +793,47 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>16100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,44 +846,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,46 +1026,49 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>5800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1059,16 +1079,19 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>1400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>900</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
@@ -1077,28 +1100,28 @@
         <v>900</v>
       </c>
       <c r="H15" s="3">
+        <v>900</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>700</v>
       </c>
       <c r="J15" s="3">
         <v>700</v>
       </c>
       <c r="K15" s="3">
+        <v>700</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1152,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>24700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,47 +1203,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,46 +1279,47 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1700</v>
       </c>
       <c r="L20" s="3">
         <v>-1700</v>
       </c>
       <c r="M20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1296,41 +1330,44 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-6700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>900</v>
+        <v>-5800</v>
       </c>
       <c r="F21" s="3">
-        <v>-5700</v>
+        <v>-900</v>
       </c>
       <c r="G21" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-6500</v>
+        <v>-4800</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-27300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,47 +1436,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1446,46 +1489,49 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,47 +1595,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1596,47 +1648,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,46 +1913,49 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1700</v>
       </c>
       <c r="L32" s="3">
         <v>1700</v>
       </c>
       <c r="M32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1896,47 +1966,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,47 +2072,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,52 +2125,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2183,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2168,14 +2255,14 @@
         <v>3100</v>
       </c>
       <c r="K41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2268,14 +2361,14 @@
         <v>12900</v>
       </c>
       <c r="K43" s="3">
+        <v>12900</v>
+      </c>
+      <c r="L43" s="3">
         <v>7900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2317,8 +2413,8 @@
       <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>600</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2335,14 +2431,17 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2368,11 +2467,11 @@
         <v>15000</v>
       </c>
       <c r="K45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L45" s="3">
         <v>11400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2418,14 +2520,14 @@
         <v>31500</v>
       </c>
       <c r="K46" s="3">
+        <v>31500</v>
+      </c>
+      <c r="L46" s="3">
         <v>21300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2468,14 +2573,14 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>14100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2518,14 +2626,14 @@
         <v>1700</v>
       </c>
       <c r="K48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2568,14 +2679,14 @@
         <v>33200</v>
       </c>
       <c r="K49" s="3">
+        <v>33200</v>
+      </c>
+      <c r="L49" s="3">
         <v>36400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2718,14 +2838,14 @@
         <v>3200</v>
       </c>
       <c r="K52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2818,14 +2944,14 @@
         <v>69600</v>
       </c>
       <c r="K54" s="3">
+        <v>69600</v>
+      </c>
+      <c r="L54" s="3">
         <v>76300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>101600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2908,14 +3039,14 @@
         <v>13500</v>
       </c>
       <c r="K57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="L57" s="3">
         <v>14100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2958,14 +3092,14 @@
         <v>5700</v>
       </c>
       <c r="K58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3008,14 +3145,14 @@
         <v>3300</v>
       </c>
       <c r="K59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3058,14 +3198,14 @@
         <v>22500</v>
       </c>
       <c r="K60" s="3">
+        <v>22500</v>
+      </c>
+      <c r="L60" s="3">
         <v>20600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3108,14 +3251,14 @@
         <v>15300</v>
       </c>
       <c r="K61" s="3">
+        <v>15300</v>
+      </c>
+      <c r="L61" s="3">
         <v>18400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3158,14 +3304,14 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3358,14 +3516,14 @@
         <v>38100</v>
       </c>
       <c r="K66" s="3">
+        <v>38100</v>
+      </c>
+      <c r="L66" s="3">
         <v>39300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3628,14 +3802,14 @@
         <v>-6800</v>
       </c>
       <c r="K72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3828,14 +4014,14 @@
         <v>31600</v>
       </c>
       <c r="K76" s="3">
+        <v>31600</v>
+      </c>
+      <c r="L76" s="3">
         <v>37000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,52 +4090,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3956,47 +4148,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,41 +4224,42 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
-        <v>900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
-        <v>700</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,41 +4540,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-8600</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-6700</v>
+        <v>-15400</v>
       </c>
       <c r="F89" s="3">
-        <v>-1400</v>
+        <v>-2200</v>
       </c>
       <c r="G89" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>4800</v>
+        <v>-4600</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,35 +4616,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-400</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
-        <v>-800</v>
+        <v>400</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
+        <v>-900</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,41 +4773,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-1400</v>
+        <v>-2700</v>
       </c>
       <c r="F94" s="3">
-        <v>-500</v>
+        <v>-1700</v>
       </c>
       <c r="G94" s="3">
-        <v>800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>400</v>
+        <v>300</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K94" s="3">
         <v>11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,41 +5059,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>1100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F100" s="3">
         <v>22400</v>
       </c>
-      <c r="F100" s="3">
-        <v>2100</v>
-      </c>
       <c r="G100" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-3700</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4866,31 +5112,34 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>100</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>-100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4904,8 +5153,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4916,41 +5165,44 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-8800</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>14600</v>
+        <v>5800</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>18900</v>
       </c>
       <c r="G102" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="H102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -748,14 +748,14 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>18900</v>
       </c>
       <c r="E8" s="3">
         <v>17800</v>
       </c>
       <c r="F8" s="3">
-        <v>22700</v>
+        <v>21300</v>
       </c>
       <c r="G8" s="3">
         <v>16600</v>
@@ -801,8 +801,8 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>17300</v>
       </c>
       <c r="E9" s="3">
         <v>16100</v>
@@ -854,14 +854,14 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>1600</v>
       </c>
       <c r="E10" s="3">
         <v>1700</v>
       </c>
       <c r="F10" s="3">
-        <v>4700</v>
+        <v>3300</v>
       </c>
       <c r="G10" s="3">
         <v>1500</v>
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
@@ -1087,8 +1087,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>1200</v>
       </c>
       <c r="E15" s="3">
         <v>1400</v>
@@ -1158,17 +1158,17 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>26800</v>
       </c>
       <c r="E17" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="F17" s="3">
-        <v>24900</v>
+        <v>23600</v>
       </c>
       <c r="G17" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="H17" s="3">
         <v>27600</v>
@@ -1211,17 +1211,17 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-7900</v>
       </c>
       <c r="E18" s="3">
-        <v>-6900</v>
+        <v>-5300</v>
       </c>
       <c r="F18" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G18" s="3">
-        <v>-5800</v>
+        <v>-5100</v>
       </c>
       <c r="H18" s="3">
         <v>3800</v>
@@ -1285,17 +1285,17 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-3000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1200</v>
+        <v>-2700</v>
       </c>
       <c r="F20" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-1500</v>
       </c>
       <c r="H20" s="3">
         <v>-1700</v>
@@ -1338,26 +1338,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-9700</v>
       </c>
       <c r="E21" s="3">
-        <v>-5800</v>
+        <v>-6700</v>
       </c>
       <c r="F21" s="3">
+        <v>900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3">
-        <v>-5800</v>
+        <v>-6500</v>
       </c>
       <c r="K21" s="3">
         <v>-2700</v>
@@ -1444,8 +1444,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-10800</v>
       </c>
       <c r="E23" s="3">
         <v>-8100</v>
@@ -1603,8 +1603,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-10000</v>
       </c>
       <c r="E26" s="3">
         <v>-7600</v>
@@ -1656,8 +1656,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-10000</v>
       </c>
       <c r="E27" s="3">
         <v>-7200</v>
@@ -1921,17 +1921,17 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>3000</v>
       </c>
       <c r="E32" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>1700</v>
@@ -1974,8 +1974,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-10000</v>
       </c>
       <c r="E33" s="3">
         <v>-7200</v>
@@ -2080,8 +2080,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-10000</v>
       </c>
       <c r="E35" s="3">
         <v>-7200</v>
@@ -2234,25 +2234,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2800</v>
       </c>
       <c r="G41" s="3">
         <v>2800</v>
       </c>
       <c r="H41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I41" s="3">
         <v>7100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3100</v>
       </c>
       <c r="K41" s="3">
         <v>3100</v>
@@ -2340,25 +2340,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E43" s="3">
         <v>12700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>12900</v>
       </c>
       <c r="K43" s="3">
         <v>12900</v>
@@ -2393,14 +2393,14 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2410,8 @@
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="3">
-        <v>600</v>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
@@ -2449,22 +2449,22 @@
         <v>1100</v>
       </c>
       <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>15000</v>
       </c>
       <c r="K45" s="3">
         <v>15000</v>
@@ -2499,25 +2499,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E46" s="3">
         <v>24000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>29800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>31500</v>
       </c>
       <c r="K46" s="3">
         <v>31500</v>
@@ -2551,20 +2551,20 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>8100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1700</v>
       </c>
       <c r="K48" s="3">
         <v>1700</v>
@@ -2658,25 +2658,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E49" s="3">
         <v>47400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>30700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>33200</v>
       </c>
       <c r="K49" s="3">
         <v>33200</v>
@@ -2817,25 +2817,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2100</v>
       </c>
       <c r="I52" s="3">
         <v>2100</v>
       </c>
       <c r="J52" s="3">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="K52" s="3">
         <v>3200</v>
@@ -2923,25 +2923,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E54" s="3">
         <v>76500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>83600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>73100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>65400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>69600</v>
       </c>
       <c r="K54" s="3">
         <v>69600</v>
@@ -3018,25 +3018,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>13500</v>
       </c>
       <c r="K57" s="3">
         <v>13500</v>
@@ -3071,25 +3071,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2300</v>
       </c>
       <c r="H58" s="3">
         <v>2300</v>
       </c>
       <c r="I58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5700</v>
       </c>
       <c r="K58" s="3">
         <v>5700</v>
@@ -3124,25 +3124,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3300</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
@@ -3177,25 +3177,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E60" s="3">
         <v>13400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>22500</v>
       </c>
       <c r="K60" s="3">
         <v>22500</v>
@@ -3230,25 +3230,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E61" s="3">
         <v>22100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>15300</v>
       </c>
       <c r="K61" s="3">
         <v>15300</v>
@@ -3286,7 +3286,7 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -3295,13 +3295,13 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3495,25 +3495,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E66" s="3">
         <v>36100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>38100</v>
       </c>
       <c r="K66" s="3">
         <v>38100</v>
@@ -3781,25 +3781,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-6800</v>
       </c>
       <c r="K72" s="3">
         <v>-6800</v>
@@ -3993,25 +3993,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E76" s="3">
         <v>40400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>31600</v>
       </c>
       <c r="K76" s="3">
         <v>31600</v>
@@ -4156,8 +4156,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-10000</v>
       </c>
       <c r="E81" s="3">
         <v>-7200</v>
@@ -4230,26 +4230,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="F83" s="3">
-        <v>-900</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
@@ -4548,26 +4548,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-4800</v>
       </c>
       <c r="E89" s="3">
-        <v>-15400</v>
+        <v>-8600</v>
       </c>
       <c r="F89" s="3">
-        <v>-2200</v>
+        <v>-6700</v>
       </c>
       <c r="G89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-1400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2200</v>
       </c>
       <c r="J89" s="3">
-        <v>-1600</v>
+        <v>4800</v>
       </c>
       <c r="K89" s="3">
         <v>-6400</v>
@@ -4622,26 +4622,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-900</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>400</v>
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -4781,26 +4781,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-2900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2700</v>
+        <v>-1300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1700</v>
+        <v>-1400</v>
       </c>
       <c r="G94" s="3">
-        <v>300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-300</v>
       </c>
       <c r="J94" s="3">
-        <v>11900</v>
+        <v>400</v>
       </c>
       <c r="K94" s="3">
         <v>11500</v>
@@ -5067,26 +5067,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>23500</v>
+        <v>1100</v>
       </c>
       <c r="F100" s="3">
         <v>22400</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>2100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>700</v>
       </c>
       <c r="J100" s="3">
-        <v>-7600</v>
+        <v>-3700</v>
       </c>
       <c r="K100" s="3">
         <v>-3900</v>
@@ -5120,26 +5120,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -5173,26 +5173,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-5300</v>
       </c>
       <c r="E102" s="3">
-        <v>5800</v>
+        <v>-8800</v>
       </c>
       <c r="F102" s="3">
-        <v>18900</v>
+        <v>14600</v>
       </c>
       <c r="G102" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2600</v>
       </c>
       <c r="J102" s="3">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="K102" s="3">
         <v>1200</v>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,76 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,50 +744,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>18900</v>
       </c>
-      <c r="E8" s="3">
-        <v>17800</v>
-      </c>
       <c r="F8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G8" s="3">
         <v>21300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,47 +800,50 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>17600</v>
+      </c>
+      <c r="L9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="M9" s="3">
         <v>16100</v>
       </c>
-      <c r="F9" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>15100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>25800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>17600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>15100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>16100</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,47 +856,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
-        <v>1700</v>
-      </c>
       <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,49 +1046,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
-        <v>-100</v>
-      </c>
       <c r="F14" s="3">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>5800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1082,19 +1102,22 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
-        <v>1400</v>
-      </c>
       <c r="F15" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
@@ -1103,28 +1126,28 @@
         <v>900</v>
       </c>
       <c r="I15" s="3">
+        <v>900</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>700</v>
       </c>
       <c r="K15" s="3">
         <v>700</v>
       </c>
       <c r="L15" s="3">
+        <v>700</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,50 +1179,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E17" s="3">
         <v>26800</v>
       </c>
-      <c r="E17" s="3">
-        <v>23100</v>
-      </c>
       <c r="F17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1206,50 +1233,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7900</v>
       </c>
-      <c r="E18" s="3">
-        <v>-5300</v>
-      </c>
       <c r="F18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1289,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,49 +1313,50 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-2700</v>
-      </c>
       <c r="F20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1700</v>
       </c>
       <c r="M20" s="3">
         <v>-1700</v>
       </c>
       <c r="N20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1333,44 +1367,47 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9700</v>
       </c>
-      <c r="E21" s="3">
-        <v>-6700</v>
-      </c>
       <c r="F21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-27300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,8 +1423,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,50 +1479,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1492,49 +1535,52 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,50 +1647,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,50 +1703,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-7200</v>
-      </c>
       <c r="F27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,8 +1759,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,31 +1815,34 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,49 +1983,52 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>2700</v>
-      </c>
       <c r="F32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1700</v>
       </c>
       <c r="M32" s="3">
         <v>1700</v>
       </c>
       <c r="N32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1969,50 +2039,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2095,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,50 +2151,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,55 +2207,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +2268,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2314,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2800</v>
       </c>
       <c r="H41" s="3">
         <v>2800</v>
       </c>
       <c r="I41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J41" s="3">
         <v>7100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,44 +2424,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,8 +2480,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2396,14 +2492,14 @@
         <v>1400</v>
       </c>
       <c r="E44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,12 +2509,12 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,47 +2530,50 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
+        <v>9400</v>
       </c>
       <c r="E45" s="3">
         <v>1100</v>
       </c>
       <c r="F45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,44 +2592,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E46" s="3">
         <v>17100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,28 +2648,31 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>8100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2576,14 +2681,14 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>14100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>35900</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2599,44 +2704,47 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,44 +2760,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E49" s="3">
         <v>48100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>47400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>30700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,44 +2928,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2100</v>
       </c>
       <c r="J52" s="3">
         <v>2100</v>
       </c>
       <c r="K52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3040,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E54" s="3">
         <v>71800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>76500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>83600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>73100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>101600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,44 +3142,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E57" s="3">
         <v>9900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,44 +3196,47 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2300</v>
       </c>
       <c r="I58" s="3">
         <v>2300</v>
       </c>
       <c r="J58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,44 +3252,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,44 +3308,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E60" s="3">
         <v>15300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,44 +3364,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E61" s="3">
         <v>22400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3277,19 +3420,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -3298,23 +3444,23 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3644,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E66" s="3">
         <v>38300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3946,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4002,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4170,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E76" s="3">
         <v>33500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,55 +4282,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4151,50 +4343,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4204,8 +4399,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,19 +4423,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -4246,23 +4445,23 @@
         <v>900</v>
       </c>
       <c r="I83" s="3">
+        <v>900</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>700</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
       </c>
       <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
         <v>-100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,44 +4757,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4813,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,38 +4837,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,44 +5003,47 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,44 +5305,47 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,31 +5361,34 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -5156,8 +5405,8 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5168,44 +5417,47 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5219,6 +5471,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,80 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,53 +748,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
-        <v>18900</v>
-      </c>
       <c r="F8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -803,50 +807,53 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
-        <v>17300</v>
-      </c>
       <c r="F9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,50 +866,53 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,8 +925,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,52 +1066,55 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>5800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1105,22 +1125,25 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>700</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
-        <v>1200</v>
-      </c>
       <c r="F15" s="3">
+        <v>800</v>
+      </c>
+      <c r="G15" s="3">
         <v>600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>900</v>
       </c>
       <c r="H15" s="3">
         <v>900</v>
@@ -1129,28 +1152,28 @@
         <v>900</v>
       </c>
       <c r="J15" s="3">
+        <v>900</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>700</v>
       </c>
       <c r="L15" s="3">
         <v>700</v>
       </c>
       <c r="M15" s="3">
+        <v>700</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,53 +1206,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E17" s="3">
         <v>10200</v>
       </c>
-      <c r="E17" s="3">
-        <v>26800</v>
-      </c>
       <c r="F17" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G17" s="3">
         <v>8200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1236,53 +1263,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6700</v>
       </c>
-      <c r="E18" s="3">
-        <v>-7900</v>
-      </c>
       <c r="F18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,8 +1322,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,52 +1347,53 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1700</v>
       </c>
       <c r="N20" s="3">
         <v>-1700</v>
       </c>
       <c r="O20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1370,47 +1404,50 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-9700</v>
-      </c>
       <c r="F21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-27300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1426,8 +1463,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,53 +1522,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-10800</v>
-      </c>
       <c r="F23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-8100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,52 +1581,55 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1594,8 +1640,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,53 +1699,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10900</v>
       </c>
-      <c r="E26" s="3">
-        <v>-10000</v>
-      </c>
       <c r="F26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,53 +1758,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10900</v>
       </c>
-      <c r="E27" s="3">
-        <v>-10000</v>
-      </c>
       <c r="F27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1762,8 +1817,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,23 +1876,26 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E29" s="3">
         <v>-600</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" s="3">
+        <v>300</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1905,8 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,52 +2053,55 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1700</v>
       </c>
       <c r="N32" s="3">
         <v>1700</v>
       </c>
       <c r="O32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2042,53 +2112,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2171,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,53 +2230,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2210,58 +2289,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2271,8 +2353,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,47 +2401,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2800</v>
       </c>
       <c r="I41" s="3">
         <v>2800</v>
       </c>
       <c r="J41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2458,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,47 +2517,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2483,26 +2576,29 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E44" s="3">
         <v>1400</v>
       </c>
       <c r="F44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G44" s="3">
         <v>1500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2512,12 +2608,12 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2533,50 +2629,53 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1100</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
       </c>
       <c r="G45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2595,47 +2694,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E46" s="3">
         <v>21200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,31 +2753,34 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>8100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2684,14 +2789,14 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>14100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>35900</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2812,11 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2716,38 +2824,38 @@
         <v>3700</v>
       </c>
       <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
         <v>3600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,47 +2871,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E49" s="3">
         <v>40100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>47400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>30700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,8 +2930,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,47 +3048,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2100</v>
       </c>
       <c r="K52" s="3">
         <v>2100</v>
       </c>
       <c r="L52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2987,8 +3107,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,47 +3166,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E54" s="3">
         <v>69700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>76500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>65800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>73100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>76300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>101600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3225,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,47 +3273,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E57" s="3">
         <v>15100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,47 +3330,50 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2300</v>
       </c>
       <c r="J58" s="3">
         <v>2300</v>
       </c>
       <c r="K58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3255,47 +3389,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3311,47 +3448,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E60" s="3">
         <v>22900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3367,47 +3507,50 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E61" s="3">
         <v>23500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3423,8 +3566,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3432,13 +3578,13 @@
         <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3447,23 +3593,23 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,47 +3802,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E66" s="3">
         <v>47700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3703,8 +3861,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,47 +4120,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4005,8 +4179,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,47 +4356,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E76" s="3">
         <v>22000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>60200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4229,8 +4415,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,58 +4474,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4346,53 +4538,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4402,8 +4597,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,22 +4622,23 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>900</v>
@@ -4448,23 +4647,23 @@
         <v>900</v>
       </c>
       <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>700</v>
       </c>
       <c r="L83" s="3">
         <v>700</v>
       </c>
       <c r="M83" s="3">
+        <v>700</v>
+      </c>
+      <c r="N83" s="3">
         <v>-100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4480,8 +4679,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,47 +4974,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4816,8 +5033,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,41 +5058,42 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4894,8 +5115,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,47 +5233,50 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5292,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,47 +5551,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5364,34 +5610,37 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -5408,8 +5657,8 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5420,47 +5669,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5474,6 +5726,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -5065,10 +5065,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-1500</v>
       </c>
       <c r="E91" s="3">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-1700</v>

--- a/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVPR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>VVPR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,84 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,56 +752,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E8" s="3">
         <v>8700</v>
       </c>
-      <c r="E8" s="3">
-        <v>3500</v>
-      </c>
       <c r="F8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G8" s="3">
         <v>11400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,53 +814,56 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E9" s="3">
         <v>8800</v>
       </c>
-      <c r="E9" s="3">
-        <v>3000</v>
-      </c>
       <c r="F9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G9" s="3">
         <v>10800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -869,53 +876,56 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>500</v>
-      </c>
       <c r="F10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -928,8 +938,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,55 +1086,58 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>5800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1128,25 +1148,28 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
       </c>
       <c r="G15" s="3">
+        <v>800</v>
+      </c>
+      <c r="H15" s="3">
         <v>600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>900</v>
       </c>
       <c r="I15" s="3">
         <v>900</v>
@@ -1155,28 +1178,28 @@
         <v>900</v>
       </c>
       <c r="K15" s="3">
+        <v>900</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>700</v>
       </c>
       <c r="M15" s="3">
         <v>700</v>
       </c>
       <c r="N15" s="3">
+        <v>700</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,56 +1233,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E17" s="3">
         <v>17100</v>
       </c>
-      <c r="E17" s="3">
-        <v>10200</v>
-      </c>
       <c r="F17" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G17" s="3">
         <v>19600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,56 +1293,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1325,8 +1355,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,55 +1381,56 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-5400</v>
-      </c>
       <c r="F20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1700</v>
       </c>
       <c r="O20" s="3">
         <v>-1700</v>
       </c>
       <c r="P20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1407,50 +1441,53 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-11300</v>
-      </c>
       <c r="F21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-10000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-27300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1466,8 +1503,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,56 +1565,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-12100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1584,55 +1627,58 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1689,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,56 +1751,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-10900</v>
-      </c>
       <c r="F26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,56 +1813,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-10900</v>
-      </c>
       <c r="F27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,8 +1875,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,26 +1937,29 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-800</v>
       </c>
-      <c r="E29" s="3">
-        <v>-600</v>
-      </c>
       <c r="F29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G29" s="3">
         <v>300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +1969,8 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,55 +2123,58 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
-        <v>5400</v>
-      </c>
       <c r="F32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1700</v>
       </c>
       <c r="O32" s="3">
         <v>1700</v>
       </c>
       <c r="P32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2115,56 +2185,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-11500</v>
-      </c>
       <c r="F33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2174,8 +2247,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,56 +2309,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-11500</v>
-      </c>
       <c r="F35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,61 +2371,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2356,8 +2438,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,50 +2488,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2800</v>
       </c>
       <c r="J41" s="3">
         <v>2800</v>
       </c>
       <c r="K41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L41" s="3">
         <v>7100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2461,8 +2548,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,50 +2610,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11400</v>
       </c>
-      <c r="E43" s="3">
-        <v>9000</v>
-      </c>
       <c r="F43" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G43" s="3">
         <v>11300</v>
       </c>
-      <c r="G43" s="3">
-        <v>12700</v>
-      </c>
       <c r="H43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I43" s="3">
         <v>12000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,29 +2672,32 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1500</v>
-      </c>
       <c r="H44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,12 +2707,12 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,53 +2728,56 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1100</v>
       </c>
       <c r="G45" s="3">
         <v>1100</v>
       </c>
       <c r="H45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,50 +2796,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E46" s="3">
         <v>17300</v>
       </c>
-      <c r="E46" s="3">
-        <v>21200</v>
-      </c>
       <c r="F46" s="3">
+        <v>21700</v>
+      </c>
+      <c r="G46" s="3">
         <v>17100</v>
       </c>
-      <c r="G46" s="3">
-        <v>24000</v>
-      </c>
       <c r="H46" s="3">
+        <v>24500</v>
+      </c>
+      <c r="I46" s="3">
         <v>35100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2756,8 +2858,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2765,25 +2870,25 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>8100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2792,14 +2897,14 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>14100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>35900</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +2920,11 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2827,38 +2935,38 @@
         <v>3700</v>
       </c>
       <c r="F48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G48" s="3">
         <v>3600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,50 +2982,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E49" s="3">
         <v>40600</v>
       </c>
-      <c r="E49" s="3">
-        <v>40100</v>
-      </c>
       <c r="F49" s="3">
+        <v>39600</v>
+      </c>
+      <c r="G49" s="3">
         <v>48100</v>
       </c>
-      <c r="G49" s="3">
-        <v>47400</v>
-      </c>
       <c r="H49" s="3">
+        <v>46900</v>
+      </c>
+      <c r="I49" s="3">
         <v>36000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,8 +3044,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3168,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3060,41 +3180,41 @@
         <v>5100</v>
       </c>
       <c r="E52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2100</v>
       </c>
       <c r="L52" s="3">
         <v>2100</v>
       </c>
       <c r="M52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3110,8 +3230,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,50 +3292,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E54" s="3">
         <v>66800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>71800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>76500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>101600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3228,8 +3354,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,50 +3404,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E57" s="3">
         <v>16600</v>
       </c>
-      <c r="E57" s="3">
-        <v>15100</v>
-      </c>
       <c r="F57" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G57" s="3">
         <v>9900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3333,50 +3464,53 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>9900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2300</v>
       </c>
       <c r="K58" s="3">
         <v>2300</v>
       </c>
       <c r="L58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3392,50 +3526,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3451,50 +3588,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E60" s="3">
         <v>27500</v>
       </c>
-      <c r="E60" s="3">
-        <v>22900</v>
-      </c>
       <c r="F60" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G60" s="3">
         <v>15300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,50 +3650,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3569,25 +3712,28 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>8800</v>
       </c>
       <c r="E62" s="3">
         <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3596,23 +3742,23 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3628,8 +3774,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,50 +3960,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E66" s="3">
         <v>50900</v>
       </c>
-      <c r="E66" s="3">
-        <v>47700</v>
-      </c>
       <c r="F66" s="3">
+        <v>48000</v>
+      </c>
+      <c r="G66" s="3">
         <v>38300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3864,8 +4022,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,50 +4294,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-102800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-89200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-77600</v>
-      </c>
       <c r="F72" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-65300</v>
       </c>
-      <c r="G72" s="3">
-        <v>-36300</v>
-      </c>
       <c r="H72" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-27100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4356,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,50 +4542,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>15800</v>
       </c>
-      <c r="E76" s="3">
-        <v>22000</v>
-      </c>
       <c r="F76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G76" s="3">
         <v>33500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>60200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4418,8 +4604,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,61 +4666,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4541,56 +4733,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-11500</v>
-      </c>
       <c r="F81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4600,8 +4795,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,25 +4821,26 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>900</v>
       </c>
       <c r="I83" s="3">
         <v>900</v>
@@ -4650,23 +4849,23 @@
         <v>900</v>
       </c>
       <c r="K83" s="3">
+        <v>900</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>700</v>
       </c>
       <c r="M83" s="3">
         <v>700</v>
       </c>
       <c r="N83" s="3">
+        <v>700</v>
+      </c>
+      <c r="O83" s="3">
         <v>-100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4682,8 +4881,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,50 +5191,53 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5036,8 +5253,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,44 +5279,45 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5118,8 +5339,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,50 +5463,53 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5295,8 +5525,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,50 +5797,53 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>8400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5613,37 +5859,40 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -5660,8 +5909,8 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5672,50 +5921,53 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5729,6 +5981,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
